--- a/Memoria/RESULTADOS.xlsx
+++ b/Memoria/RESULTADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO T14S\Desktop\Personal\repo_memoria\memoria_2024\Memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF6239-3E89-4B3B-9258-045676B0C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C67F0A-9A71-454F-9863-3A1BE3D75D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ET" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="483">
   <si>
     <t>IdEstablecimiento</t>
   </si>
@@ -2672,6 +2672,30 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>Igual a 1</t>
+  </si>
+  <si>
+    <t>Entre 1 y 0,9</t>
+  </si>
+  <si>
+    <t>Entre 0,9 y 0,75</t>
+  </si>
+  <si>
+    <t>Entre 0,75 y 0,5</t>
+  </si>
+  <si>
+    <t>Menor a 0,5</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
 </sst>
 </file>
 
@@ -2683,7 +2707,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2731,6 +2755,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2981,7 +3010,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3061,14 +3090,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3079,15 +3117,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3522,18 +3555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="69" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3613,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>101100</v>
       </c>
@@ -3630,7 +3663,7 @@
         <v>0.97575000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>102100</v>
       </c>
@@ -3680,7 +3713,7 @@
         <v>0.89674999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>103100</v>
       </c>
@@ -3730,7 +3763,7 @@
         <v>0.96049999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>103101</v>
       </c>
@@ -3780,7 +3813,7 @@
         <v>0.92949999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>103102</v>
       </c>
@@ -3830,7 +3863,7 @@
         <v>0.5635</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>103104</v>
       </c>
@@ -3880,7 +3913,7 @@
         <v>0.48124999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>104100</v>
       </c>
@@ -3930,7 +3963,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>104103</v>
       </c>
@@ -3980,7 +4013,7 @@
         <v>0.83849999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>105100</v>
       </c>
@@ -4030,7 +4063,7 @@
         <v>0.87974999999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>105101</v>
       </c>
@@ -4080,7 +4113,7 @@
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>105102</v>
       </c>
@@ -4130,7 +4163,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>105103</v>
       </c>
@@ -4180,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>105104</v>
       </c>
@@ -4230,7 +4263,7 @@
         <v>0.40350000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>105107</v>
       </c>
@@ -4280,7 +4313,7 @@
         <v>0.37324999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>105108</v>
       </c>
@@ -4330,7 +4363,7 @@
         <v>0.25374999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>106100</v>
       </c>
@@ -4380,7 +4413,7 @@
         <v>0.83450000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>106102</v>
       </c>
@@ -4430,7 +4463,7 @@
         <v>0.64824999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>106103</v>
       </c>
@@ -4480,7 +4513,7 @@
         <v>0.80874999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>107100</v>
       </c>
@@ -4530,7 +4563,7 @@
         <v>0.8892500000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>107101</v>
       </c>
@@ -4580,7 +4613,7 @@
         <v>0.84975000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>107102</v>
       </c>
@@ -4630,7 +4663,7 @@
         <v>0.89175000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>107103</v>
       </c>
@@ -4680,7 +4713,7 @@
         <v>0.75449999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>107104</v>
       </c>
@@ -4730,7 +4763,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>107105</v>
       </c>
@@ -4780,7 +4813,7 @@
         <v>0.63524999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>107106</v>
       </c>
@@ -4830,7 +4863,7 @@
         <v>0.39249999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>107107</v>
       </c>
@@ -4880,7 +4913,7 @@
         <v>0.76550000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>107108</v>
       </c>
@@ -4930,7 +4963,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>107109</v>
       </c>
@@ -4980,7 +5013,7 @@
         <v>0.26649999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>108100</v>
       </c>
@@ -5030,7 +5063,7 @@
         <v>0.85375000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>108101</v>
       </c>
@@ -5080,7 +5113,7 @@
         <v>0.93025000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>108102</v>
       </c>
@@ -5130,7 +5163,7 @@
         <v>0.65975000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>108104</v>
       </c>
@@ -5180,7 +5213,7 @@
         <v>0.49324999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>109100</v>
       </c>
@@ -5230,7 +5263,7 @@
         <v>0.91674999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>109101</v>
       </c>
@@ -5280,7 +5313,7 @@
         <v>0.96625000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>109103</v>
       </c>
@@ -5330,7 +5363,7 @@
         <v>0.96950000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>110100</v>
       </c>
@@ -5380,7 +5413,7 @@
         <v>0.93325000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>110110</v>
       </c>
@@ -5430,7 +5463,7 @@
         <v>0.88424999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>110120</v>
       </c>
@@ -5480,7 +5513,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>110130</v>
       </c>
@@ -5530,7 +5563,7 @@
         <v>0.91575000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>110140</v>
       </c>
@@ -5580,7 +5613,7 @@
         <v>0.98775000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>110150</v>
       </c>
@@ -5630,7 +5663,7 @@
         <v>0.97324999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>111100</v>
       </c>
@@ -5680,7 +5713,7 @@
         <v>0.95700000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>111101</v>
       </c>
@@ -5730,7 +5763,7 @@
         <v>0.98475000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>111195</v>
       </c>
@@ -5780,7 +5813,7 @@
         <v>0.89375000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>112100</v>
       </c>
@@ -5830,7 +5863,7 @@
         <v>0.97675000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>112101</v>
       </c>
@@ -5880,7 +5913,7 @@
         <v>0.97575000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>112102</v>
       </c>
@@ -5930,7 +5963,7 @@
         <v>0.9504999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>112103</v>
       </c>
@@ -5980,7 +6013,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>112104</v>
       </c>
@@ -6030,7 +6063,7 @@
         <v>0.85950000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>112105</v>
       </c>
@@ -6080,7 +6113,7 @@
         <v>0.42975000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>112106</v>
       </c>
@@ -6130,7 +6163,7 @@
         <v>0.77324999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>112107</v>
       </c>
@@ -6180,7 +6213,7 @@
         <v>0.96575</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>113100</v>
       </c>
@@ -6230,7 +6263,7 @@
         <v>0.91525000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>113130</v>
       </c>
@@ -6280,7 +6313,7 @@
         <v>0.96074999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>113150</v>
       </c>
@@ -6330,7 +6363,7 @@
         <v>0.90949999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>113180</v>
       </c>
@@ -6380,7 +6413,7 @@
         <v>0.92874999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>114101</v>
       </c>
@@ -6430,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>114103</v>
       </c>
@@ -6480,7 +6513,7 @@
         <v>0.92775000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>114105</v>
       </c>
@@ -6530,7 +6563,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>115100</v>
       </c>
@@ -6580,7 +6613,7 @@
         <v>0.95124999999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>115101</v>
       </c>
@@ -6630,7 +6663,7 @@
         <v>0.73824999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>115102</v>
       </c>
@@ -6680,7 +6713,7 @@
         <v>0.94825000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>115104</v>
       </c>
@@ -6730,7 +6763,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>115105</v>
       </c>
@@ -6780,7 +6813,7 @@
         <v>0.9425</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>115106</v>
       </c>
@@ -6830,7 +6863,7 @@
         <v>0.96575</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>115107</v>
       </c>
@@ -6880,7 +6913,7 @@
         <v>0.92575000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>115109</v>
       </c>
@@ -6930,7 +6963,7 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>115110</v>
       </c>
@@ -6980,7 +7013,7 @@
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>115111</v>
       </c>
@@ -7030,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>115112</v>
       </c>
@@ -7080,7 +7113,7 @@
         <v>0.56725000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>115113</v>
       </c>
@@ -7130,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>115114</v>
       </c>
@@ -7180,7 +7213,7 @@
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>116100</v>
       </c>
@@ -7230,7 +7263,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>116101</v>
       </c>
@@ -7280,7 +7313,7 @@
         <v>0.85450000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>116102</v>
       </c>
@@ -7330,7 +7363,7 @@
         <v>0.37975000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>116103</v>
       </c>
@@ -7380,7 +7413,7 @@
         <v>0.67199999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>116104</v>
       </c>
@@ -7430,7 +7463,7 @@
         <v>0.57600000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>116105</v>
       </c>
@@ -7480,7 +7513,7 @@
         <v>0.98324999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>116106</v>
       </c>
@@ -7530,7 +7563,7 @@
         <v>0.82650000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>116107</v>
       </c>
@@ -7580,7 +7613,7 @@
         <v>0.80525000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>116108</v>
       </c>
@@ -7630,7 +7663,7 @@
         <v>0.93599999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>116109</v>
       </c>
@@ -7680,7 +7713,7 @@
         <v>0.90450000000000008</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>116110</v>
       </c>
@@ -7730,7 +7763,7 @@
         <v>0.83774999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>116111</v>
       </c>
@@ -7780,7 +7813,7 @@
         <v>0.75824999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>116112</v>
       </c>
@@ -7830,7 +7863,7 @@
         <v>0.68424999999999991</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>117101</v>
       </c>
@@ -7880,7 +7913,7 @@
         <v>0.91325000000000012</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>117102</v>
       </c>
@@ -7930,7 +7963,7 @@
         <v>0.92425000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>117103</v>
       </c>
@@ -7980,7 +8013,7 @@
         <v>0.53849999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>117104</v>
       </c>
@@ -8030,7 +8063,7 @@
         <v>0.50475000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>117106</v>
       </c>
@@ -8080,7 +8113,7 @@
         <v>7.0500000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>117107</v>
       </c>
@@ -8130,7 +8163,7 @@
         <v>0.60175000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>117108</v>
       </c>
@@ -8180,7 +8213,7 @@
         <v>0.28475</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>118100</v>
       </c>
@@ -8230,7 +8263,7 @@
         <v>0.97550000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>118103</v>
       </c>
@@ -8280,7 +8313,7 @@
         <v>0.82250000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>118105</v>
       </c>
@@ -8330,7 +8363,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>118106</v>
       </c>
@@ -8380,7 +8413,7 @@
         <v>0.6855</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>119100</v>
       </c>
@@ -8430,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>119101</v>
       </c>
@@ -8480,7 +8513,7 @@
         <v>0.74949999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>119102</v>
       </c>
@@ -8530,7 +8563,7 @@
         <v>0.84750000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>120101</v>
       </c>
@@ -8580,7 +8613,7 @@
         <v>0.9415</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>120102</v>
       </c>
@@ -8630,7 +8663,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>120103</v>
       </c>
@@ -8680,7 +8713,7 @@
         <v>0.40375000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>120104</v>
       </c>
@@ -8730,7 +8763,7 @@
         <v>0.44825000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>120105</v>
       </c>
@@ -8780,7 +8813,7 @@
         <v>0.67425000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>121109</v>
       </c>
@@ -8830,7 +8863,7 @@
         <v>0.8567499999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>121110</v>
       </c>
@@ -8880,7 +8913,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>121111</v>
       </c>
@@ -8930,7 +8963,7 @@
         <v>0.59725000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>121112</v>
       </c>
@@ -8980,7 +9013,7 @@
         <v>0.65125</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>121113</v>
       </c>
@@ -9030,7 +9063,7 @@
         <v>0.88524999999999987</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>121114</v>
       </c>
@@ -9080,7 +9113,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>121115</v>
       </c>
@@ -9130,7 +9163,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>121116</v>
       </c>
@@ -9180,7 +9213,7 @@
         <v>0.58074999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>121117</v>
       </c>
@@ -9230,7 +9263,7 @@
         <v>0.81224999999999992</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>121118</v>
       </c>
@@ -9280,7 +9313,7 @@
         <v>0.72924999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>121119</v>
       </c>
@@ -9330,7 +9363,7 @@
         <v>0.35925000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>121120</v>
       </c>
@@ -9380,7 +9413,7 @@
         <v>0.52825</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>121121</v>
       </c>
@@ -9430,7 +9463,7 @@
         <v>0.95374999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>122100</v>
       </c>
@@ -9480,7 +9513,7 @@
         <v>0.85499999999999987</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>122101</v>
       </c>
@@ -9530,7 +9563,7 @@
         <v>0.96975</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>122102</v>
       </c>
@@ -9580,7 +9613,7 @@
         <v>0.70625000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>122103</v>
       </c>
@@ -9630,7 +9663,7 @@
         <v>0.76075000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>122104</v>
       </c>
@@ -9680,7 +9713,7 @@
         <v>0.66949999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>122105</v>
       </c>
@@ -9730,7 +9763,7 @@
         <v>0.81800000000000006</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>122106</v>
       </c>
@@ -9780,7 +9813,7 @@
         <v>0.86375000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>123100</v>
       </c>
@@ -9830,7 +9863,7 @@
         <v>0.91449999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>123101</v>
       </c>
@@ -9880,7 +9913,7 @@
         <v>0.75225000000000009</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15">
       <c r="A128">
         <v>123103</v>
       </c>
@@ -9930,7 +9963,7 @@
         <v>0.53974999999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15">
       <c r="A129">
         <v>124105</v>
       </c>
@@ -9980,7 +10013,7 @@
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15">
       <c r="A130">
         <v>124110</v>
       </c>
@@ -10030,7 +10063,7 @@
         <v>0.74324999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15">
       <c r="A131">
         <v>124115</v>
       </c>
@@ -10080,7 +10113,7 @@
         <v>0.4985</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15">
       <c r="A132">
         <v>124120</v>
       </c>
@@ -10130,7 +10163,7 @@
         <v>0.12075</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15">
       <c r="A133">
         <v>124130</v>
       </c>
@@ -10180,7 +10213,7 @@
         <v>0.48049999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15">
       <c r="A134">
         <v>124140</v>
       </c>
@@ -10230,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15">
       <c r="A135">
         <v>124145</v>
       </c>
@@ -10280,7 +10313,7 @@
         <v>0.98025000000000007</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15">
       <c r="A136">
         <v>125100</v>
       </c>
@@ -10330,7 +10363,7 @@
         <v>0.95974999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15">
       <c r="A137">
         <v>125101</v>
       </c>
@@ -10380,7 +10413,7 @@
         <v>0.68025000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15">
       <c r="A138">
         <v>125102</v>
       </c>
@@ -10430,7 +10463,7 @@
         <v>0.59425000000000006</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15">
       <c r="A139">
         <v>125103</v>
       </c>
@@ -10480,7 +10513,7 @@
         <v>0.66125000000000012</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15">
       <c r="A140">
         <v>126100</v>
       </c>
@@ -10530,7 +10563,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15">
       <c r="A141">
         <v>126101</v>
       </c>
@@ -10580,7 +10613,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15">
       <c r="A142">
         <v>128109</v>
       </c>
@@ -10630,7 +10663,7 @@
         <v>0.91699999999999993</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15">
       <c r="A143">
         <v>128110</v>
       </c>
@@ -10680,7 +10713,7 @@
         <v>0.56525000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15">
       <c r="A144">
         <v>128111</v>
       </c>
@@ -10730,7 +10763,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15">
       <c r="A145">
         <v>128112</v>
       </c>
@@ -10780,7 +10813,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15">
       <c r="A146">
         <v>128113</v>
       </c>
@@ -10830,7 +10863,7 @@
         <v>0.61450000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15">
       <c r="A147">
         <v>129100</v>
       </c>
@@ -10880,7 +10913,7 @@
         <v>0.7995000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15">
       <c r="A148">
         <v>129101</v>
       </c>
@@ -10930,7 +10963,7 @@
         <v>0.54349999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15">
       <c r="A149">
         <v>129103</v>
       </c>
@@ -10980,7 +11013,7 @@
         <v>0.52849999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15">
       <c r="A150">
         <v>129104</v>
       </c>
@@ -11030,7 +11063,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15">
       <c r="A151">
         <v>129106</v>
       </c>
@@ -11080,7 +11113,7 @@
         <v>0.80025000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15">
       <c r="A152">
         <v>129107</v>
       </c>
@@ -11130,7 +11163,7 @@
         <v>0.71724999999999994</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15">
       <c r="A153">
         <v>129108</v>
       </c>
@@ -11181,6 +11214,42 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M2:M153">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N153">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O153">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11188,18 +11257,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1530B79E-1B9D-431D-A017-F269E450E83C}">
-  <dimension ref="A2:K8"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="42" t="s">
         <v>468</v>
       </c>
@@ -11234,7 +11304,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="42" t="s">
         <v>179</v>
       </c>
@@ -11279,7 +11349,7 @@
         <v>0.80583552631578936</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="42" t="s">
         <v>464</v>
       </c>
@@ -11324,7 +11394,7 @@
         <v>0.89549999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="42" t="s">
         <v>465</v>
       </c>
@@ -11369,7 +11439,7 @@
         <v>0.70950000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="42" t="s">
         <v>466</v>
       </c>
@@ -11414,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="42" t="s">
         <v>467</v>
       </c>
@@ -11459,7 +11529,7 @@
         <v>0.29049999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="42" t="s">
         <v>180</v>
       </c>
@@ -11502,6 +11572,198 @@
       <c r="K8" s="23">
         <f>_xlfn.VAR.S(ET!L2:L153)</f>
         <v>5.6383701246078964E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(ET!M2:M153,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(ET!N2:N153,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(ET!O2:O153,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="64">
+        <f>COUNTIFS(ET!M2:M153, "&lt;1", ET!M2:M153, "&gt;=0,9")</f>
+        <v>42</v>
+      </c>
+      <c r="C15" s="64">
+        <f>COUNTIFS(ET!N2:N153, "&lt;1", ET!N2:N153, "&gt;=0,9")</f>
+        <v>35</v>
+      </c>
+      <c r="D15" s="64">
+        <f>COUNTIFS(ET!O2:O153, "&lt;1", ET!O2:O153, "&gt;=0,9")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="64">
+        <f>COUNTIFS(ET!M2:M153, "&lt;0,9", ET!M2:M153, "&gt;=0,75")</f>
+        <v>46</v>
+      </c>
+      <c r="C16" s="64">
+        <f>COUNTIFS(ET!N2:N153, "&lt;0,9", ET!N2:N153, "&gt;=0,75")</f>
+        <v>48</v>
+      </c>
+      <c r="D16" s="64">
+        <f>COUNTIFS(ET!O2:O153, "&lt;0,9", ET!O2:O153, "&gt;=0,75")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" s="64">
+        <f>COUNTIFS(ET!M2:M153, "&lt;0,75", ET!M2:M153, "&gt;=0,5")</f>
+        <v>43</v>
+      </c>
+      <c r="C17" s="64">
+        <f>COUNTIFS(ET!N2:N153, "&lt;0,75", ET!N2:N153, "&gt;=0,5")</f>
+        <v>42</v>
+      </c>
+      <c r="D17" s="64">
+        <f>COUNTIFS(ET!O2:O153, "&lt;0,75", ET!O2:O153, "&gt;=0,5")</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="64">
+        <f>COUNTIFS(ET!M2:M153, "&lt;0,5")</f>
+        <v>19</v>
+      </c>
+      <c r="C18" s="64">
+        <f>COUNTIFS(ET!N2:N153, "&lt;0,5")</f>
+        <v>23</v>
+      </c>
+      <c r="D18" s="64">
+        <f>COUNTIFS(ET!O2:O153, "&lt;0,5")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" s="65">
+        <f>(B14/152)</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="C23" s="65">
+        <f>(C14/152)</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="D23" s="65">
+        <f>(D14/152)</f>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="65">
+        <f>(B15/152)</f>
+        <v>0.27631578947368424</v>
+      </c>
+      <c r="C24" s="65">
+        <f>(C15/152)</f>
+        <v>0.23026315789473684</v>
+      </c>
+      <c r="D24" s="65">
+        <f>(D15/152)</f>
+        <v>0.29605263157894735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25" s="65">
+        <f>(B16/152)</f>
+        <v>0.30263157894736842</v>
+      </c>
+      <c r="C25" s="65">
+        <f>(C16/152)</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D25" s="65">
+        <f>(D16/152)</f>
+        <v>0.26973684210526316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="65">
+        <f>(B17/152)</f>
+        <v>0.28289473684210525</v>
+      </c>
+      <c r="C26" s="65">
+        <f>(C17/152)</f>
+        <v>0.27631578947368424</v>
+      </c>
+      <c r="D26" s="65">
+        <f>(D17/152)</f>
+        <v>0.25657894736842107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" s="65">
+        <f>(B18/152)</f>
+        <v>0.125</v>
+      </c>
+      <c r="C27" s="65">
+        <f>(C18/152)</f>
+        <v>0.15131578947368421</v>
+      </c>
+      <c r="D27" s="65">
+        <f>(D18/152)</f>
+        <v>0.13815789473684212</v>
       </c>
     </row>
   </sheetData>
@@ -11517,12 +11779,12 @@
       <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -11563,7 +11825,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>101100</v>
       </c>
@@ -11604,7 +11866,7 @@
         <v>1.0564376573144401</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>102100</v>
       </c>
@@ -11645,7 +11907,7 @@
         <v>0.98855645586582197</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>103100</v>
       </c>
@@ -11686,7 +11948,7 @@
         <v>1.1032140804108199</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>103101</v>
       </c>
@@ -11727,7 +11989,7 @@
         <v>0.97023405656012696</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>103102</v>
       </c>
@@ -11768,7 +12030,7 @@
         <v>1.2257854271165201</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>103104</v>
       </c>
@@ -11809,7 +12071,7 @@
         <v>1.15234467241355</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>104100</v>
       </c>
@@ -11850,7 +12112,7 @@
         <v>1.0476737932836</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>104103</v>
       </c>
@@ -11891,7 +12153,7 @@
         <v>0.977632490275398</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>105100</v>
       </c>
@@ -11932,7 +12194,7 @@
         <v>1.10439038993614</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>105101</v>
       </c>
@@ -11973,7 +12235,7 @@
         <v>1.00815844456473</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>105102</v>
       </c>
@@ -12014,7 +12276,7 @@
         <v>1.2254554882983399</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>105103</v>
       </c>
@@ -12055,7 +12317,7 @@
         <v>1.0902797957356101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>105104</v>
       </c>
@@ -12096,7 +12358,7 @@
         <v>1.3295187323426401</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>105107</v>
       </c>
@@ -12137,7 +12399,7 @@
         <v>1.3415265181084299</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>105108</v>
       </c>
@@ -12178,7 +12440,7 @@
         <v>1.25656125101301</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>106100</v>
       </c>
@@ -12219,7 +12481,7 @@
         <v>1.0146958939405599</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>106102</v>
       </c>
@@ -12260,7 +12522,7 @@
         <v>1.0455175638768801</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>106103</v>
       </c>
@@ -12301,7 +12563,7 @@
         <v>0.97927477517678296</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>107100</v>
       </c>
@@ -12342,7 +12604,7 @@
         <v>1.01857902272581</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>107101</v>
       </c>
@@ -12383,7 +12645,7 @@
         <v>1.0418881340502599</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>107102</v>
       </c>
@@ -12424,7 +12686,7 @@
         <v>1.0333431610833801</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>107103</v>
       </c>
@@ -12465,7 +12727,7 @@
         <v>1.16976415207469</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>107104</v>
       </c>
@@ -12506,7 +12768,7 @@
         <v>1.0745795906940601</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>107105</v>
       </c>
@@ -12547,7 +12809,7 @@
         <v>1.1866562319460201</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>107106</v>
       </c>
@@ -12588,7 +12850,7 @@
         <v>1.9791019338470499</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>107107</v>
       </c>
@@ -12629,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>107108</v>
       </c>
@@ -12670,7 +12932,7 @@
         <v>1.01193025205225</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>107109</v>
       </c>
@@ -12711,7 +12973,7 @@
         <v>1.1316462832140901</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>108100</v>
       </c>
@@ -12752,7 +13014,7 @@
         <v>1.0226795291070201</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>108101</v>
       </c>
@@ -12793,7 +13055,7 @@
         <v>0.98519664728935397</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>108102</v>
       </c>
@@ -12834,7 +13096,7 @@
         <v>1.33924063458709</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>108104</v>
       </c>
@@ -12875,7 +13137,7 @@
         <v>1.4264471787266599</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>109100</v>
       </c>
@@ -12916,7 +13178,7 @@
         <v>1.02767110136571</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>109101</v>
       </c>
@@ -12957,7 +13219,7 @@
         <v>1.13484535962712</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>109103</v>
       </c>
@@ -12998,7 +13260,7 @@
         <v>1.1625805756363601</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>110100</v>
       </c>
@@ -13039,7 +13301,7 @@
         <v>1.0826367044153899</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>110110</v>
       </c>
@@ -13080,7 +13342,7 @@
         <v>1.0395978491509801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>110120</v>
       </c>
@@ -13121,7 +13383,7 @@
         <v>0.98819226050701703</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>110130</v>
       </c>
@@ -13162,7 +13424,7 @@
         <v>0.92736980213026499</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>110140</v>
       </c>
@@ -13203,7 +13465,7 @@
         <v>1.09951726247446</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>110150</v>
       </c>
@@ -13244,7 +13506,7 @@
         <v>1.0221068895893399</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>111100</v>
       </c>
@@ -13285,7 +13547,7 @@
         <v>1.2117086194470501</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>111101</v>
       </c>
@@ -13326,7 +13588,7 @@
         <v>1.1471026391691099</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>111195</v>
       </c>
@@ -13367,7 +13629,7 @@
         <v>0.99774763303201597</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>112100</v>
       </c>
@@ -13408,7 +13670,7 @@
         <v>1.1249046052412699</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>112101</v>
       </c>
@@ -13449,7 +13711,7 @@
         <v>0.98914792512671601</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>112102</v>
       </c>
@@ -13490,7 +13752,7 @@
         <v>1.1589517175916799</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>112103</v>
       </c>
@@ -13531,7 +13793,7 @@
         <v>1.1673183538676599</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>112104</v>
       </c>
@@ -13572,7 +13834,7 @@
         <v>1.1396776713519601</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>112105</v>
       </c>
@@ -13613,7 +13875,7 @@
         <v>2.1149943781628902</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>112106</v>
       </c>
@@ -13654,7 +13916,7 @@
         <v>1.63453249269469</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>112107</v>
       </c>
@@ -13695,7 +13957,7 @@
         <v>1.85546154907965</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>113100</v>
       </c>
@@ -13736,7 +13998,7 @@
         <v>1.01681334135253</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>113130</v>
       </c>
@@ -13777,7 +14039,7 @@
         <v>1.30721623686995</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>113150</v>
       </c>
@@ -13818,7 +14080,7 @@
         <v>0.90900337373572304</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>113180</v>
       </c>
@@ -13859,7 +14121,7 @@
         <v>0.971764443103592</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>114101</v>
       </c>
@@ -13900,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>114103</v>
       </c>
@@ -13941,7 +14203,7 @@
         <v>1.1478452667515799</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>114105</v>
       </c>
@@ -13982,7 +14244,7 @@
         <v>1.1418103628212699</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>115100</v>
       </c>
@@ -14023,7 +14285,7 @@
         <v>1.0419076393698401</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>115101</v>
       </c>
@@ -14064,7 +14326,7 @@
         <v>1.3165822506840399</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>115102</v>
       </c>
@@ -14105,7 +14367,7 @@
         <v>1.1148445444817401</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>115104</v>
       </c>
@@ -14146,7 +14408,7 @@
         <v>0.98585440525337298</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>115105</v>
       </c>
@@ -14187,7 +14449,7 @@
         <v>1.0486571800333599</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>115106</v>
       </c>
@@ -14228,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>115107</v>
       </c>
@@ -14269,7 +14531,7 @@
         <v>0.99633620839892201</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>115109</v>
       </c>
@@ -14310,7 +14572,7 @@
         <v>1.00360989009326</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>115110</v>
       </c>
@@ -14351,7 +14613,7 @@
         <v>0.98905405321683904</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>115111</v>
       </c>
@@ -14392,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>115112</v>
       </c>
@@ -14433,7 +14695,7 @@
         <v>1.09851393785574</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>115113</v>
       </c>
@@ -14474,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>115114</v>
       </c>
@@ -14515,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>116100</v>
       </c>
@@ -14556,7 +14818,7 @@
         <v>1.0392206457312501</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>116101</v>
       </c>
@@ -14597,7 +14859,7 @@
         <v>1.01034357871569</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>116102</v>
       </c>
@@ -14638,7 +14900,7 @@
         <v>0.99379374977325696</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>116103</v>
       </c>
@@ -14679,7 +14941,7 @@
         <v>1.0597161937898301</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>116104</v>
       </c>
@@ -14720,7 +14982,7 @@
         <v>1.1459896646771</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>116105</v>
       </c>
@@ -14761,7 +15023,7 @@
         <v>1.13240248586324</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>116106</v>
       </c>
@@ -14802,7 +15064,7 @@
         <v>0.93922956035383798</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>116107</v>
       </c>
@@ -14843,7 +15105,7 @@
         <v>1.0647909523347501</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>116108</v>
       </c>
@@ -14884,7 +15146,7 @@
         <v>1.0001877570448501</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>116109</v>
       </c>
@@ -14925,7 +15187,7 @@
         <v>0.894442844948103</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>116110</v>
       </c>
@@ -14966,7 +15228,7 @@
         <v>0.991892428329891</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>116111</v>
       </c>
@@ -15007,7 +15269,7 @@
         <v>1.0333663381387499</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>116112</v>
       </c>
@@ -15048,7 +15310,7 @@
         <v>1.2968484583644599</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>117101</v>
       </c>
@@ -15089,7 +15351,7 @@
         <v>1.04804351187779</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>117102</v>
       </c>
@@ -15130,7 +15392,7 @@
         <v>0.94450413021730095</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>117103</v>
       </c>
@@ -15171,7 +15433,7 @@
         <v>1.2351137368390801</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>117104</v>
       </c>
@@ -15212,7 +15474,7 @@
         <v>1.2818685505408201</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>117106</v>
       </c>
@@ -15253,7 +15515,7 @@
         <v>1.3259989960332801</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>117107</v>
       </c>
@@ -15294,7 +15556,7 @@
         <v>1.29342143670655</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>117108</v>
       </c>
@@ -15335,7 +15597,7 @@
         <v>1.32085029797239</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>118100</v>
       </c>
@@ -15376,7 +15638,7 @@
         <v>1.1104387192068901</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>118103</v>
       </c>
@@ -15417,7 +15679,7 @@
         <v>1.2088188071581201</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>118105</v>
       </c>
@@ -15458,7 +15720,7 @@
         <v>0.84368540734979802</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>118106</v>
       </c>
@@ -15499,7 +15761,7 @@
         <v>1.06649486038245</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>119100</v>
       </c>
@@ -15540,7 +15802,7 @@
         <v>1.11412060099439</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>119101</v>
       </c>
@@ -15581,7 +15843,7 @@
         <v>1.1586697666686601</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>119102</v>
       </c>
@@ -15622,7 +15884,7 @@
         <v>1.0484222632820499</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>120101</v>
       </c>
@@ -15663,7 +15925,7 @@
         <v>0.98190881181744305</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>120102</v>
       </c>
@@ -15704,7 +15966,7 @@
         <v>1.2167475676769699</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>120103</v>
       </c>
@@ -15745,7 +16007,7 @@
         <v>1.24001197655045</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>120104</v>
       </c>
@@ -15786,7 +16048,7 @@
         <v>1.2139149883518101</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>120105</v>
       </c>
@@ -15827,7 +16089,7 @@
         <v>1.3764957233886499</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>121109</v>
       </c>
@@ -15868,7 +16130,7 @@
         <v>1.0222104695371399</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>121110</v>
       </c>
@@ -15909,7 +16171,7 @@
         <v>1.17031321444185</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>121111</v>
       </c>
@@ -15950,7 +16212,7 @@
         <v>1.2400197001436299</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>121112</v>
       </c>
@@ -15991,7 +16253,7 @@
         <v>1.3685134358908</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>121113</v>
       </c>
@@ -16032,7 +16294,7 @@
         <v>1.0620137507590699</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>121114</v>
       </c>
@@ -16073,7 +16335,7 @@
         <v>1.1516654184247801</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>121115</v>
       </c>
@@ -16114,7 +16376,7 @@
         <v>1.1821088983394199</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>121116</v>
       </c>
@@ -16155,7 +16417,7 @@
         <v>1.67116983731878</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>121117</v>
       </c>
@@ -16196,7 +16458,7 @@
         <v>1.1629358076559899</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>121118</v>
       </c>
@@ -16237,7 +16499,7 @@
         <v>1.29970588955028</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>121119</v>
       </c>
@@ -16278,7 +16540,7 @@
         <v>1.1631330338746599</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>121120</v>
       </c>
@@ -16319,7 +16581,7 @@
         <v>1.3181220319781499</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>121121</v>
       </c>
@@ -16360,7 +16622,7 @@
         <v>1.01914079408762</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>122100</v>
       </c>
@@ -16401,7 +16663,7 @@
         <v>1.00377006687613</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>122101</v>
       </c>
@@ -16442,7 +16704,7 @@
         <v>0.754786341451261</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>122102</v>
       </c>
@@ -16483,7 +16745,7 @@
         <v>1.19262782353013</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>122103</v>
       </c>
@@ -16524,7 +16786,7 @@
         <v>1.0685125845213901</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>122104</v>
       </c>
@@ -16565,7 +16827,7 @@
         <v>1.1248231646159299</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>122105</v>
       </c>
@@ -16606,7 +16868,7 @@
         <v>1.1793892566210999</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>122106</v>
       </c>
@@ -16647,7 +16909,7 @@
         <v>1.2635989709998201</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>123100</v>
       </c>
@@ -16688,7 +16950,7 @@
         <v>0.95714478136652703</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>123101</v>
       </c>
@@ -16729,7 +16991,7 @@
         <v>1.18572824628115</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>123103</v>
       </c>
@@ -16770,7 +17032,7 @@
         <v>1.3787307741863</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>124105</v>
       </c>
@@ -16811,7 +17073,7 @@
         <v>0.96332196554445604</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>124110</v>
       </c>
@@ -16852,7 +17114,7 @@
         <v>1.1243702137029701</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>124115</v>
       </c>
@@ -16893,7 +17155,7 @@
         <v>1.2002419229777299</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>124120</v>
       </c>
@@ -16934,7 +17196,7 @@
         <v>1.2978094676298</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>124130</v>
       </c>
@@ -16975,7 +17237,7 @@
         <v>1.2600522442150399</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>124140</v>
       </c>
@@ -17016,7 +17278,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>124145</v>
       </c>
@@ -17057,7 +17319,7 @@
         <v>0.82095240697195204</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>125100</v>
       </c>
@@ -17098,7 +17360,7 @@
         <v>0.98774966738536796</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>125101</v>
       </c>
@@ -17139,7 +17401,7 @@
         <v>1.0373698064726899</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>125102</v>
       </c>
@@ -17180,7 +17442,7 @@
         <v>1.6529851649612199</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>125103</v>
       </c>
@@ -17221,7 +17483,7 @@
         <v>0.66348904625171901</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>126100</v>
       </c>
@@ -17262,7 +17524,7 @@
         <v>1.05885690230426</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>126101</v>
       </c>
@@ -17303,7 +17565,7 @@
         <v>0.991273263511397</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>128109</v>
       </c>
@@ -17344,7 +17606,7 @@
         <v>0.92469806656137998</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>128110</v>
       </c>
@@ -17385,7 +17647,7 @@
         <v>1.2197369577316399</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>128111</v>
       </c>
@@ -17426,7 +17688,7 @@
         <v>1.0484169711848501</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>128112</v>
       </c>
@@ -17467,7 +17729,7 @@
         <v>1.36992573532508</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>128113</v>
       </c>
@@ -17508,7 +17770,7 @@
         <v>1.20367494166015</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>129100</v>
       </c>
@@ -17549,7 +17811,7 @@
         <v>1.09891653316652</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>129101</v>
       </c>
@@ -17590,7 +17852,7 @@
         <v>1.3727941583157801</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>129103</v>
       </c>
@@ -17631,7 +17893,7 @@
         <v>1.3374519241162199</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>129104</v>
       </c>
@@ -17672,7 +17934,7 @@
         <v>1.09545880742699</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>129106</v>
       </c>
@@ -17713,7 +17975,7 @@
         <v>0.99324318659412603</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>129107</v>
       </c>
@@ -17754,7 +18016,7 @@
         <v>1.14367572341266</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>129108</v>
       </c>
@@ -17809,9 +18071,9 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="42" t="s">
         <v>468</v>
       </c>
@@ -17844,7 +18106,7 @@
       </c>
       <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="42" t="s">
         <v>179</v>
       </c>
@@ -17886,7 +18148,7 @@
       </c>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="42" t="s">
         <v>464</v>
       </c>
@@ -17928,7 +18190,7 @@
       </c>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="42" t="s">
         <v>465</v>
       </c>
@@ -17970,7 +18232,7 @@
       </c>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="42" t="s">
         <v>466</v>
       </c>
@@ -18012,7 +18274,7 @@
       </c>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="42" t="s">
         <v>467</v>
       </c>
@@ -18054,7 +18316,7 @@
       </c>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="42" t="s">
         <v>180</v>
       </c>
@@ -18105,11 +18367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.33203125" customWidth="1"/>
@@ -18119,84 +18381,84 @@
     <col min="39" max="39" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:39" ht="13.95" customHeight="1" thickBot="1">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="55">
+      <c r="E1" s="59">
         <v>2014</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59">
         <v>2015</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59">
         <v>2016</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59">
         <v>2017</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59">
         <v>2018</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59">
         <v>2019</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55">
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59">
         <v>2020</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59">
         <v>2021</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59">
         <v>2022</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55">
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59">
         <v>2023</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="54" t="s">
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="AJ1" s="54" t="s">
+      <c r="AJ1" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="AK1" s="54" t="s">
+      <c r="AK1" s="58" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+    <row r="2" spans="1:39" ht="15" thickBot="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
         <v>177</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -18289,9 +18551,9 @@
       <c r="AH2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
       <c r="AL2" t="s">
         <v>461</v>
       </c>
@@ -18299,7 +18561,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="43.2">
       <c r="A3" s="45" t="s">
         <v>383</v>
       </c>
@@ -18420,7 +18682,7 @@
         <v>0.51291705040710489</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="28.8">
       <c r="A4" s="50" t="s">
         <v>204</v>
       </c>
@@ -18541,7 +18803,7 @@
         <v>0.48130456808391359</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="28.8">
       <c r="A5" s="50" t="s">
         <v>187</v>
       </c>
@@ -18662,7 +18924,7 @@
         <v>0.54446084370589398</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="A6" s="51" t="s">
         <v>308</v>
       </c>
@@ -18783,7 +19045,7 @@
         <v>0.47713228519740497</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="28.8">
       <c r="A7" s="51" t="s">
         <v>219</v>
       </c>
@@ -18904,7 +19166,7 @@
         <v>0.4631478365578714</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="43.2">
       <c r="A8" s="50" t="s">
         <v>384</v>
       </c>
@@ -19025,7 +19287,7 @@
         <v>0.50198561648358697</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="57.6">
       <c r="A9" s="51" t="s">
         <v>201</v>
       </c>
@@ -19146,7 +19408,7 @@
         <v>0.49583923382070605</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="43.2">
       <c r="A10" s="50" t="s">
         <v>206</v>
       </c>
@@ -19267,7 +19529,7 @@
         <v>0.47112201516058538</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="43.2">
       <c r="A11" s="51" t="s">
         <v>289</v>
       </c>
@@ -19388,7 +19650,7 @@
         <v>0.46422847418240576</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="28.8">
       <c r="A12" s="45" t="s">
         <v>386</v>
       </c>
@@ -19509,7 +19771,7 @@
         <v>0.48258254021930808</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="72">
       <c r="A13" s="8" t="s">
         <v>388</v>
       </c>
@@ -19630,7 +19892,7 @@
         <v>0.50497727999896869</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="28.8">
       <c r="A14" s="8" t="s">
         <v>234</v>
       </c>
@@ -19751,7 +20013,7 @@
         <v>0.46572871864278292</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="43.2">
       <c r="A15" s="12" t="s">
         <v>210</v>
       </c>
@@ -19872,7 +20134,7 @@
         <v>0.49121997336821643</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="28.8">
       <c r="A16" s="12" t="s">
         <v>270</v>
       </c>
@@ -19993,7 +20255,7 @@
         <v>0.51128484017599662</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="43.2">
       <c r="A17" s="8" t="s">
         <v>196</v>
       </c>
@@ -20114,7 +20376,7 @@
         <v>0.50160396833690468</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="43.2">
       <c r="A18" s="6" t="s">
         <v>224</v>
       </c>
@@ -20235,7 +20497,7 @@
         <v>0.46555213364604026</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="43.2">
       <c r="A19" s="8" t="s">
         <v>236</v>
       </c>
@@ -20356,7 +20618,7 @@
         <v>0.46192932145912829</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39">
       <c r="A20" s="6" t="s">
         <v>390</v>
       </c>
@@ -20477,7 +20739,7 @@
         <v>0.51335487418412262</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="28.8">
       <c r="A21" s="12" t="s">
         <v>229</v>
       </c>
@@ -20598,7 +20860,7 @@
         <v>0.46997872903168253</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="43.2">
       <c r="A22" s="12" t="s">
         <v>352</v>
       </c>
@@ -20719,7 +20981,7 @@
         <v>0.44674641658620856</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39">
       <c r="A23" s="8" t="s">
         <v>256</v>
       </c>
@@ -20840,7 +21102,7 @@
         <v>0.45974707913964369</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="43.2">
       <c r="A24" s="8" t="s">
         <v>392</v>
       </c>
@@ -20961,7 +21223,7 @@
         <v>0.45649884713713745</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="28.8">
       <c r="A25" s="6" t="s">
         <v>394</v>
       </c>
@@ -21082,7 +21344,7 @@
         <v>0.44040838988870606</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39">
       <c r="A26" s="12" t="s">
         <v>246</v>
       </c>
@@ -21203,7 +21465,7 @@
         <v>0.45881689662802139</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="28.8">
       <c r="A27" s="12" t="s">
         <v>316</v>
       </c>
@@ -21324,7 +21586,7 @@
         <v>0.44322411463679268</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="43.2">
       <c r="A28" s="8" t="s">
         <v>263</v>
       </c>
@@ -21445,7 +21707,7 @@
         <v>0.43725713428442348</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39">
       <c r="A29" s="8" t="s">
         <v>396</v>
       </c>
@@ -21566,7 +21828,7 @@
         <v>0.45155031418211589</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="28.8">
       <c r="A30" s="12" t="s">
         <v>335</v>
       </c>
@@ -21687,7 +21949,7 @@
         <v>0.46181398460345591</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="28.8">
       <c r="A31" s="6" t="s">
         <v>398</v>
       </c>
@@ -21808,7 +22070,7 @@
         <v>0.441392192496257</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="43.2">
       <c r="A32" s="8" t="s">
         <v>278</v>
       </c>
@@ -21929,7 +22191,7 @@
         <v>0.44647534476841966</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="28.8">
       <c r="A33" s="8" t="s">
         <v>400</v>
       </c>
@@ -22050,7 +22312,7 @@
         <v>0.50300913158891458</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" ht="28.8">
       <c r="A34" s="8" t="s">
         <v>402</v>
       </c>
@@ -22171,7 +22433,7 @@
         <v>0.44226206829116993</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39">
       <c r="A35" s="15" t="s">
         <v>253</v>
       </c>
@@ -22292,7 +22554,7 @@
         <v>0.46180505998010679</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="57.6">
       <c r="A36" s="8" t="s">
         <v>404</v>
       </c>
@@ -22413,7 +22675,7 @@
         <v>0.43906461061972529</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" ht="28.8">
       <c r="A37" s="8" t="s">
         <v>406</v>
       </c>
@@ -22534,7 +22796,7 @@
         <v>0.43765722938058577</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39">
       <c r="A38" s="15" t="s">
         <v>408</v>
       </c>
@@ -22653,7 +22915,7 @@
         <v>0.44015659825059306</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="21" customFormat="1" ht="43.2">
       <c r="A39" s="8" t="s">
         <v>410</v>
       </c>
@@ -22774,7 +23036,7 @@
         <v>0.43882359018307049</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="21" customFormat="1" ht="43.2">
       <c r="A40" s="8" t="s">
         <v>412</v>
       </c>
@@ -22895,7 +23157,7 @@
         <v>0.43443924310593013</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="21" customFormat="1" ht="43.2">
       <c r="A41" s="8" t="s">
         <v>248</v>
       </c>
@@ -23016,7 +23278,7 @@
         <v>0.43390203623059775</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="21" customFormat="1" ht="57.6">
       <c r="A42" s="8" t="s">
         <v>414</v>
       </c>
@@ -23134,7 +23396,7 @@
         <v>0.43485461169357781</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="21" customFormat="1" ht="43.2">
       <c r="A43" s="8" t="s">
         <v>416</v>
       </c>
@@ -23255,7 +23517,7 @@
         <v>0.44361581070122486</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="21" customFormat="1" ht="28.8">
       <c r="A44" s="8" t="s">
         <v>418</v>
       </c>
@@ -23376,7 +23638,7 @@
         <v>0.43549978110587279</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="21" customFormat="1" ht="43.2">
       <c r="A45" s="8" t="s">
         <v>420</v>
       </c>
@@ -23497,7 +23759,7 @@
         <v>0.42514667966469966</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39">
       <c r="A46" s="15" t="s">
         <v>422</v>
       </c>
@@ -23618,7 +23880,7 @@
         <v>0.42474636937362081</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" ht="28.8">
       <c r="A47" s="8" t="s">
         <v>198</v>
       </c>
@@ -23739,7 +24001,7 @@
         <v>0.53933551069728247</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="28.8">
       <c r="A48" s="8" t="s">
         <v>424</v>
       </c>
@@ -23860,7 +24122,7 @@
         <v>0.42938708569343337</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" ht="43.2">
       <c r="A49" s="6" t="s">
         <v>426</v>
       </c>
@@ -23981,7 +24243,7 @@
         <v>0.43080937497830435</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39">
       <c r="A50" s="15" t="s">
         <v>429</v>
       </c>
@@ -24102,7 +24364,7 @@
         <v>0.42933608966168418</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="28.8">
       <c r="A51" s="8" t="s">
         <v>215</v>
       </c>
@@ -24223,7 +24485,7 @@
         <v>0.49336557482456628</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" ht="43.8" thickBot="1">
       <c r="A52" s="16" t="s">
         <v>431</v>
       </c>
@@ -24346,23 +24608,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:AH41 E42:I42 K42:AH42 E43:AH52">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
@@ -24378,75 +24640,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:25" ht="13.95" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="54">
+      <c r="E1" s="58">
         <v>2014</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58">
         <v>2015</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54">
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58">
         <v>2016</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58">
         <v>2017</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58">
         <v>2018</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54">
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58">
         <v>2019</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="Y1" s="58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="60"/>
       <c r="B2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="3" t="s">
         <v>182</v>
       </c>
@@ -24501,11 +24763,11 @@
       <c r="V2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-    </row>
-    <row r="3" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+    </row>
+    <row r="3" spans="1:25" ht="28.8">
       <c r="A3" s="45" t="s">
         <v>185</v>
       </c>
@@ -24582,7 +24844,7 @@
         <v>1.6553741593800599</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="28.8">
       <c r="A4" s="50" t="s">
         <v>187</v>
       </c>
@@ -24659,7 +24921,7 @@
         <v>0.82342772988657897</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="72">
       <c r="A5" s="45" t="s">
         <v>191</v>
       </c>
@@ -24736,7 +24998,7 @@
         <v>0.73857739402436995</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="43.2">
       <c r="A6" s="45" t="s">
         <v>433</v>
       </c>
@@ -24813,7 +25075,7 @@
         <v>1.59979822941078</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="43.2">
       <c r="A7" s="45" t="s">
         <v>434</v>
       </c>
@@ -24890,7 +25152,7 @@
         <v>1.52540357148196</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="86.4">
       <c r="A8" s="50" t="s">
         <v>196</v>
       </c>
@@ -24967,7 +25229,7 @@
         <v>1.8191210575960599</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="57.6">
       <c r="A9" s="50" t="s">
         <v>198</v>
       </c>
@@ -25044,7 +25306,7 @@
         <v>0.37949528866458998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="72">
       <c r="A10" s="45" t="s">
         <v>435</v>
       </c>
@@ -25121,7 +25383,7 @@
         <v>0.17433699314766499</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="86.4">
       <c r="A11" s="51" t="s">
         <v>201</v>
       </c>
@@ -25198,7 +25460,7 @@
         <v>0.63338835199112598</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="57.6">
       <c r="A12" s="50" t="s">
         <v>204</v>
       </c>
@@ -25275,7 +25537,7 @@
         <v>0.28803583941821598</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="72">
       <c r="A13" s="8" t="s">
         <v>206</v>
       </c>
@@ -25352,14 +25614,14 @@
         <v>0.78385525762674901</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:25">
+      <c r="A14" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="54">
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -25429,14 +25691,14 @@
         <v>1.2951656059643399</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:25" ht="72">
+      <c r="A15" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="56">
         <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -25506,7 +25768,7 @@
         <v>0.236069459487739</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="86.4">
       <c r="A16" s="6" t="s">
         <v>445</v>
       </c>
@@ -25583,7 +25845,7 @@
         <v>1.61676580580562</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="86.4">
       <c r="A17" s="6" t="s">
         <v>440</v>
       </c>
@@ -25660,7 +25922,7 @@
         <v>0.53562742493034299</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="43.2">
       <c r="A18" s="8" t="s">
         <v>215</v>
       </c>
@@ -25737,7 +25999,7 @@
         <v>2.0831683731156101</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="86.4">
       <c r="A19" s="6" t="s">
         <v>451</v>
       </c>
@@ -25814,7 +26076,7 @@
         <v>0.90159630695484205</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="43.2">
       <c r="A20" s="12" t="s">
         <v>219</v>
       </c>
@@ -25891,7 +26153,7 @@
         <v>1.56586272572692</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="11" customFormat="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>221</v>
@@ -25964,7 +26226,7 @@
         <v>0.52309383805195697</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="43.2">
       <c r="A22" s="6" t="s">
         <v>452</v>
       </c>
@@ -26041,7 +26303,7 @@
         <v>4.0442570354732602E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="57.6">
       <c r="A23" s="6" t="s">
         <v>224</v>
       </c>
@@ -26118,7 +26380,7 @@
         <v>1.44666943587871</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="100.8">
       <c r="A24" s="6" t="s">
         <v>436</v>
       </c>
@@ -26195,7 +26457,7 @@
         <v>0.515533370329187</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="43.2">
       <c r="A25" s="12" t="s">
         <v>229</v>
       </c>
@@ -26272,7 +26534,7 @@
         <v>2.0830982893588001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="72">
       <c r="A26" s="6" t="s">
         <v>441</v>
       </c>
@@ -26347,7 +26609,7 @@
         <v>0.98101764935284397</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="57.6">
       <c r="A27" s="6" t="s">
         <v>437</v>
       </c>
@@ -26424,7 +26686,7 @@
         <v>4.7591423496337597E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="43.2">
       <c r="A28" s="8" t="s">
         <v>234</v>
       </c>
@@ -26501,7 +26763,7 @@
         <v>0.66010133064062104</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="86.4">
       <c r="A29" s="8" t="s">
         <v>236</v>
       </c>
@@ -26578,7 +26840,7 @@
         <v>0.59540193438056899</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="72">
       <c r="A30" s="6" t="s">
         <v>446</v>
       </c>
@@ -26655,7 +26917,7 @@
         <v>0.74635018990705704</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="43.2">
       <c r="A31" s="6" t="s">
         <v>447</v>
       </c>
@@ -26732,7 +26994,7 @@
         <v>0.68548530525727003</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="86.4">
       <c r="A32" s="6" t="s">
         <v>448</v>
       </c>
@@ -26809,7 +27071,7 @@
         <v>1.2900411627181301</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="72">
       <c r="A33" s="6" t="s">
         <v>453</v>
       </c>
@@ -26886,7 +27148,7 @@
         <v>0.51495457651235699</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="43.2">
       <c r="A34" s="6" t="s">
         <v>442</v>
       </c>
@@ -26963,7 +27225,7 @@
         <v>1.6470454694582299</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="43.2">
       <c r="A35" s="6" t="s">
         <v>443</v>
       </c>
@@ -27040,7 +27302,7 @@
         <v>1.63384733364463</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="86.4">
       <c r="A36" s="6" t="s">
         <v>454</v>
       </c>
@@ -27117,7 +27379,7 @@
         <v>0.94169820192484299</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="28.8">
       <c r="A37" s="12" t="s">
         <v>246</v>
       </c>
@@ -27194,7 +27456,7 @@
         <v>0.593892482958152</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="72">
       <c r="A38" s="8" t="s">
         <v>248</v>
       </c>
@@ -27271,7 +27533,7 @@
         <v>1.4453390472308301</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="57.6">
       <c r="A39" s="12" t="s">
         <v>250</v>
       </c>
@@ -27348,7 +27610,7 @@
         <v>1.8166759199306901</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="43.2">
       <c r="A40" s="6" t="s">
         <v>449</v>
       </c>
@@ -27425,7 +27687,7 @@
         <v>0.40248971112474802</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
         <v>253</v>
       </c>
@@ -27502,7 +27764,7 @@
         <v>0.63145131817256395</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" s="11" customFormat="1">
       <c r="A42" s="9" t="s">
         <v>463</v>
       </c>
@@ -27579,7 +27841,7 @@
         <v>1.7470978844207401</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="43.2">
       <c r="A43" s="8" t="s">
         <v>256</v>
       </c>
@@ -27656,7 +27918,7 @@
         <v>0.31911295577257698</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="57.6">
       <c r="A44" s="6" t="s">
         <v>455</v>
       </c>
@@ -27733,7 +27995,7 @@
         <v>2.08860442365844</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="72">
       <c r="A45" s="6" t="s">
         <v>444</v>
       </c>
@@ -27810,7 +28072,7 @@
         <v>0.44981315063910798</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="43.2">
       <c r="A46" s="6" t="s">
         <v>450</v>
       </c>
@@ -27887,7 +28149,7 @@
         <v>5.7854265867913902E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="86.4">
       <c r="A47" s="6" t="s">
         <v>438</v>
       </c>
@@ -27964,7 +28226,7 @@
         <v>0.97515047718553305</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="72">
       <c r="A48" s="8" t="s">
         <v>263</v>
       </c>
@@ -28041,7 +28303,7 @@
         <v>1.5339071819919901</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="57.6">
       <c r="A49" s="6" t="s">
         <v>456</v>
       </c>
@@ -28118,7 +28380,7 @@
         <v>3.4261039484347999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="57.6">
       <c r="A50" s="6" t="s">
         <v>457</v>
       </c>
@@ -28195,7 +28457,7 @@
         <v>0.29453326144880998</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="57.6">
       <c r="A51" s="6" t="s">
         <v>458</v>
       </c>
@@ -28272,7 +28534,7 @@
         <v>3.1813314239554698E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="43.2">
       <c r="A52" s="6" t="s">
         <v>439</v>
       </c>
@@ -28351,6 +28613,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="K1:M1"/>
@@ -28358,11 +28625,6 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:V52">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
@@ -28379,10 +28641,10 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="82.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
@@ -28390,58 +28652,58 @@
     <col min="5" max="5" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="58">
+      <c r="F1" s="63">
         <v>2020</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63">
         <v>2021</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63">
         <v>2022</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63">
         <v>2023</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="57" t="s">
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+    <row r="2" spans="1:20">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="18" t="s">
         <v>182</v>
       </c>
@@ -28478,11 +28740,11 @@
       <c r="Q2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="12" t="s">
         <v>270</v>
       </c>
@@ -28544,7 +28806,7 @@
         <v>0.65346103352191698</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="28.8">
       <c r="A4" s="12" t="s">
         <v>273</v>
       </c>
@@ -28606,7 +28868,7 @@
         <v>0.48582162366572901</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="12" t="s">
         <v>276</v>
       </c>
@@ -28668,7 +28930,7 @@
         <v>0.62559883380272696</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="28.8">
       <c r="A6" s="8" t="s">
         <v>278</v>
       </c>
@@ -28730,7 +28992,7 @@
         <v>0.45690863169149698</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="28.8">
       <c r="A7" s="12" t="s">
         <v>281</v>
       </c>
@@ -28792,7 +29054,7 @@
         <v>6.1138702574966203E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="12" t="s">
         <v>285</v>
       </c>
@@ -28852,7 +29114,7 @@
         <v>0.97741824807385502</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="28.8">
       <c r="A9" s="8" t="s">
         <v>287</v>
       </c>
@@ -28914,7 +29176,7 @@
         <v>0.210731755239526</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="28.8">
       <c r="A10" s="12" t="s">
         <v>289</v>
       </c>
@@ -28976,7 +29238,7 @@
         <v>0.63606586024747402</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="28.8">
       <c r="A11" s="12" t="s">
         <v>292</v>
       </c>
@@ -29038,7 +29300,7 @@
         <v>2.50130678637661E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="12" t="s">
         <v>294</v>
       </c>
@@ -29100,7 +29362,7 @@
         <v>5.1915476427698802E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="12" t="s">
         <v>296</v>
       </c>
@@ -29162,7 +29424,7 @@
         <v>0.47582197245390501</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="28.8">
       <c r="A14" s="12" t="s">
         <v>298</v>
       </c>
@@ -29224,7 +29486,7 @@
         <v>0.46987126039142502</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="28.8">
       <c r="A15" s="12" t="s">
         <v>210</v>
       </c>
@@ -29286,7 +29548,7 @@
         <v>1.8462921699753101</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="12" t="s">
         <v>301</v>
       </c>
@@ -29346,7 +29608,7 @@
         <v>1.70418462114009</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="12" t="s">
         <v>250</v>
       </c>
@@ -29408,7 +29670,7 @@
         <v>0.81139669965074601</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="28.8">
       <c r="A18" s="12" t="s">
         <v>303</v>
       </c>
@@ -29470,7 +29732,7 @@
         <v>6.8786769837723097E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="12" t="s">
         <v>305</v>
       </c>
@@ -29532,7 +29794,7 @@
         <v>1.7733122292796801E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="28.8">
       <c r="A20" s="12" t="s">
         <v>201</v>
       </c>
@@ -29594,7 +29856,7 @@
         <v>1.87122787133798</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" s="12" t="s">
         <v>308</v>
       </c>
@@ -29656,7 +29918,7 @@
         <v>1.80347614553688</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="28.8">
       <c r="A22" s="12" t="s">
         <v>311</v>
       </c>
@@ -29718,7 +29980,7 @@
         <v>2.42845439525359E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="28.8">
       <c r="A23" s="12" t="s">
         <v>313</v>
       </c>
@@ -29780,7 +30042,7 @@
         <v>1.7216304799070701</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="12" t="s">
         <v>316</v>
       </c>
@@ -29842,7 +30104,7 @@
         <v>1.73281706014298</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="12" t="s">
         <v>318</v>
       </c>
@@ -29904,7 +30166,7 @@
         <v>1.78689868038026</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="12" t="s">
         <v>219</v>
       </c>
@@ -29966,7 +30228,7 @@
         <v>0.67012022828775097</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="28.8">
       <c r="A27" s="12" t="s">
         <v>322</v>
       </c>
@@ -30028,7 +30290,7 @@
         <v>1.21596483740595</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="28.8">
       <c r="A28" s="12" t="s">
         <v>325</v>
       </c>
@@ -30090,7 +30352,7 @@
         <v>0.54464410687124198</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="43.2">
       <c r="A29" s="12" t="s">
         <v>327</v>
       </c>
@@ -30152,7 +30414,7 @@
         <v>0.30203274789606699</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="28.8">
       <c r="A30" s="12" t="s">
         <v>330</v>
       </c>
@@ -30214,7 +30476,7 @@
         <v>1.62330376082869</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" s="12" t="s">
         <v>332</v>
       </c>
@@ -30276,7 +30538,7 @@
         <v>8.5400767485335996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="28.8">
       <c r="A32" s="12" t="s">
         <v>335</v>
       </c>
@@ -30338,7 +30600,7 @@
         <v>0.238997619156124</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="12" t="s">
         <v>338</v>
       </c>
@@ -30400,7 +30662,7 @@
         <v>7.2690067896039004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" s="12" t="s">
         <v>340</v>
       </c>
@@ -30462,7 +30724,7 @@
         <v>0.65898708993072297</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="28.8">
       <c r="A35" s="12" t="s">
         <v>342</v>
       </c>
@@ -30524,7 +30786,7 @@
         <v>0.36904990298918899</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" s="12" t="s">
         <v>229</v>
       </c>
@@ -30586,7 +30848,7 @@
         <v>0.10437780467728699</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="28.8">
       <c r="A37" s="12" t="s">
         <v>345</v>
       </c>
@@ -30648,7 +30910,7 @@
         <v>0.38973332909633401</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="41" t="s">
         <v>347</v>
       </c>
@@ -30710,7 +30972,7 @@
         <v>4.3516199880519101E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="28.8">
       <c r="A39" s="12" t="s">
         <v>350</v>
       </c>
@@ -30772,7 +31034,7 @@
         <v>1.6329991521562099</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="28.8">
       <c r="A40" s="12" t="s">
         <v>352</v>
       </c>
@@ -30834,7 +31096,7 @@
         <v>6.6909716630357705E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="28.8">
       <c r="A41" s="12" t="s">
         <v>355</v>
       </c>
@@ -30896,7 +31158,7 @@
         <v>0.71389975249095305</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="12" t="s">
         <v>357</v>
       </c>
@@ -30958,7 +31220,7 @@
         <v>0.34487216256291803</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="12" t="s">
         <v>360</v>
       </c>
@@ -31020,7 +31282,7 @@
         <v>0.40104984707853703</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="12" t="s">
         <v>362</v>
       </c>
@@ -31082,7 +31344,7 @@
         <v>0.29815322903203201</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="28.8">
       <c r="A45" s="12" t="s">
         <v>364</v>
       </c>
@@ -31144,7 +31406,7 @@
         <v>2.28471762448261E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="28.8">
       <c r="A46" s="12" t="s">
         <v>367</v>
       </c>
@@ -31206,7 +31468,7 @@
         <v>0.72548691785461406</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="28.8">
       <c r="A47" s="12" t="s">
         <v>369</v>
       </c>
@@ -31268,7 +31530,7 @@
         <v>9.0837844023885506E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="40" t="s">
         <v>372</v>
       </c>
@@ -31330,7 +31592,7 @@
         <v>1.0592679495028701</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="37.35" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>374</v>
       </c>
@@ -31392,7 +31654,7 @@
         <v>4.5361575025029896E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" s="12" t="s">
         <v>246</v>
       </c>
@@ -31454,7 +31716,7 @@
         <v>0.458377045682763</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="28.8">
       <c r="A51" s="12" t="s">
         <v>379</v>
       </c>
@@ -31516,7 +31778,7 @@
         <v>1.8233865483668199</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" s="39" t="s">
         <v>208</v>
       </c>
@@ -31580,6 +31842,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="F1:H1"/>
@@ -31587,11 +31854,6 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:Q52">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
@@ -31605,58 +31867,316 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70EAA0F-F3D8-4001-83D6-26AEBA86E0B7}">
-  <dimension ref="B3:L7"/>
+  <dimension ref="B3:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="57" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="57" t="s">
         <v>472</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="57" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f>COUNTIF('DET GENERAL'!B3:B52, B4)</f>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF('DET PRE'!B3:B52, B4)</f>
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF('DET POST'!B3:B52, B4)</f>
+        <v>25</v>
+      </c>
+      <c r="I4" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f>COUNTIF('DET GENERAL'!B4:B53, B5)</f>
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF('DET PRE'!B4:B53, B5)</f>
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF('DET POST'!B4:B53, B5)</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>COUNTIF('DET GENERAL'!B5:B54, B6)</f>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF('DET PRE'!B5:B54, B6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF('DET POST'!B5:B54, B6)</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>474</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF('DET GENERAL'!B6:B55, B7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF('DET PRE'!B6:B55, B7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF('DET POST'!B6:B55, B7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="I8" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="I9" s="52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="I10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="I11" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="I12" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="I13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="I15" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="I16" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" ht="15" thickBot="1">
+      <c r="I47" s="17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Memoria/RESULTADOS.xlsx
+++ b/Memoria/RESULTADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO T14S\Desktop\Personal\repo_memoria\memoria_2024\Memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C67F0A-9A71-454F-9863-3A1BE3D75D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CBD74F-83F6-4369-AFFB-81070A86063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ET" sheetId="1" r:id="rId1"/>
@@ -3010,7 +3010,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3099,14 +3099,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3117,10 +3118,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -11257,10 +11260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1530B79E-1B9D-431D-A017-F269E450E83C}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11270,500 +11273,528 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="57">
         <v>2014</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="57">
         <v>2015</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="57">
         <v>2016</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="57">
         <v>2017</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="57">
         <v>2018</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="57">
         <v>2019</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="57">
         <v>2020</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="57">
         <v>2021</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="57">
         <v>2022</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="57">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="68">
         <f>AVERAGE(ET!C2:C153)</f>
         <v>0.72477631578947344</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="68">
         <f>AVERAGE(ET!D2:D153)</f>
         <v>0.70530921052631534</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="68">
         <f>AVERAGE(ET!E2:E153)</f>
         <v>0.7276644736842105</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="68">
         <f>AVERAGE(ET!F2:F153)</f>
         <v>0.74253947368421047</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="68">
         <f>AVERAGE(ET!G2:G153)</f>
         <v>0.77183552631578933</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="68">
         <f>AVERAGE(ET!H2:H153)</f>
         <v>0.77673026315789462</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="68">
         <f>AVERAGE(ET!I2:I153)</f>
         <v>0.75544736842105242</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="68">
         <f>AVERAGE(ET!J2:J153)</f>
         <v>0.74508552631578928</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="68">
         <f>AVERAGE(ET!K2:K153)</f>
         <v>0.73721052631578965</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="68">
         <f>AVERAGE(ET!L2:L153)</f>
         <v>0.80583552631578936</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="68">
         <f>MEDIAN(ET!C2:C153)</f>
         <v>0.79700000000000004</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="68">
         <f>MEDIAN(ET!D2:D153)</f>
         <v>0.74350000000000005</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="68">
         <f>MEDIAN(ET!E2:E153)</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="68">
         <f>MEDIAN(ET!F2:F153)</f>
         <v>0.80800000000000005</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="68">
         <f>MEDIAN(ET!G2:G153)</f>
         <v>0.84650000000000003</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="68">
         <f>MEDIAN(ET!H2:H153)</f>
         <v>0.84050000000000002</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="68">
         <f>MEDIAN(ET!I2:I153)</f>
         <v>0.82599999999999996</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="68">
         <f>MEDIAN(ET!J2:J153)</f>
         <v>0.78400000000000003</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="68">
         <f>MEDIAN(ET!K2:K153)</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="68">
         <f>MEDIAN(ET!L2:L153)</f>
         <v>0.89549999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!C2:C153,1)</f>
         <v>0.57274999999999998</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!D2:D153,1)</f>
         <v>0.59975000000000001</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!E2:E153,1)</f>
         <v>0.59250000000000003</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!F2:F153,1)</f>
         <v>0.61799999999999999</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!G2:G153,1)</f>
         <v>0.62349999999999994</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!H2:H153,1)</f>
         <v>0.61399999999999999</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!I2:I153,1)</f>
         <v>0.63275000000000003</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!J2:J153,1)</f>
         <v>0.64475000000000005</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!K2:K153,1)</f>
         <v>0.59050000000000002</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="68">
         <f>_xlfn.QUARTILE.INC(ET!L2:L153,1)</f>
         <v>0.70950000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!C2:C153,3)</f>
         <v>0.91625000000000001</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!D2:D153,3)</f>
         <v>0.872</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!E2:E153,3)</f>
         <v>0.90149999999999997</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!F2:F153,3)</f>
         <v>0.92100000000000004</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!G2:G153,3)</f>
         <v>0.94624999999999992</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!H2:H153,3)</f>
         <v>0.93425000000000002</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!I2:I153,3)</f>
         <v>0.9395</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!J2:J153,3)</f>
         <v>0.91125</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!K2:K153,3)</f>
         <v>0.93225000000000002</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="68">
         <f>_xlfn.QUARTILE.INC(ET!L2:L153,3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!C2:C153,3) - _xlfn.QUARTILE.INC(ET!C2:C153,1)</f>
         <v>0.34350000000000003</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!D2:D153,3) - _xlfn.QUARTILE.INC(ET!D2:D153,1)</f>
         <v>0.27224999999999999</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!E2:E153,3) - _xlfn.QUARTILE.INC(ET!E2:E153,1)</f>
         <v>0.30899999999999994</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!F2:F153,3) - _xlfn.QUARTILE.INC(ET!F2:F153,1)</f>
         <v>0.30300000000000005</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!G2:G153,3) - _xlfn.QUARTILE.INC(ET!G2:G153,1)</f>
         <v>0.32274999999999998</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!H2:H153,3) - _xlfn.QUARTILE.INC(ET!H2:H153,1)</f>
         <v>0.32025000000000003</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!I2:I153,3) - _xlfn.QUARTILE.INC(ET!I2:I153,1)</f>
         <v>0.30674999999999997</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!J2:J153,3) - _xlfn.QUARTILE.INC(ET!J2:J153,1)</f>
         <v>0.26649999999999996</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!K2:K153,3) - _xlfn.QUARTILE.INC(ET!K2:K153,1)</f>
         <v>0.34175</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="68">
         <f>_xlfn.QUARTILE.INC(ET!L2:L153,3) - _xlfn.QUARTILE.INC(ET!L2:L153,1)</f>
         <v>0.29049999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="68">
         <f>_xlfn.VAR.S(ET!C2:C153)</f>
         <v>5.6578757581039626E-2</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="68">
         <f>_xlfn.VAR.S(ET!D2:D153)</f>
         <v>5.2292678590101532E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="68">
         <f>_xlfn.VAR.S(ET!E2:E153)</f>
         <v>4.9325588663297212E-2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="68">
         <f>_xlfn.VAR.S(ET!F2:F153)</f>
         <v>5.3378779888463054E-2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="68">
         <f>_xlfn.VAR.S(ET!G2:G153)</f>
         <v>4.5575793961311187E-2</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="68">
         <f>_xlfn.VAR.S(ET!H2:H153)</f>
         <v>4.2612158548275575E-2</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="68">
         <f>_xlfn.VAR.S(ET!I2:I153)</f>
         <v>5.7541825026141712E-2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="68">
         <f>_xlfn.VAR.S(ET!J2:J153)</f>
         <v>4.6260211179854134E-2</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="68">
         <f>_xlfn.VAR.S(ET!K2:K153)</f>
         <v>5.9157200418263979E-2</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="68">
         <f>_xlfn.VAR.S(ET!L2:L153)</f>
         <v>5.6383701246078964E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>482</v>
+      </c>
+    </row>
     <row r="13" spans="1:11">
-      <c r="B13" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="A13" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="B14">
+      <c r="B13" s="65">
         <f>COUNTIF(ET!M2:M153,1)</f>
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C13" s="65">
         <f>COUNTIF(ET!N2:N153,1)</f>
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D13" s="65">
         <f>COUNTIF(ET!O2:O153,1)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B14" s="66">
         <f>COUNTIFS(ET!M2:M153, "&lt;1", ET!M2:M153, "&gt;=0,9")</f>
         <v>42</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C14" s="66">
         <f>COUNTIFS(ET!N2:N153, "&lt;1", ET!N2:N153, "&gt;=0,9")</f>
         <v>35</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D14" s="66">
         <f>COUNTIFS(ET!O2:O153, "&lt;1", ET!O2:O153, "&gt;=0,9")</f>
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B15" s="66">
         <f>COUNTIFS(ET!M2:M153, "&lt;0,9", ET!M2:M153, "&gt;=0,75")</f>
         <v>46</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C15" s="66">
         <f>COUNTIFS(ET!N2:N153, "&lt;0,9", ET!N2:N153, "&gt;=0,75")</f>
         <v>48</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D15" s="66">
         <f>COUNTIFS(ET!O2:O153, "&lt;0,9", ET!O2:O153, "&gt;=0,75")</f>
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B16" s="66">
         <f>COUNTIFS(ET!M2:M153, "&lt;0,75", ET!M2:M153, "&gt;=0,5")</f>
         <v>43</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C16" s="66">
         <f>COUNTIFS(ET!N2:N153, "&lt;0,75", ET!N2:N153, "&gt;=0,5")</f>
         <v>42</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D16" s="66">
         <f>COUNTIFS(ET!O2:O153, "&lt;0,75", ET!O2:O153, "&gt;=0,5")</f>
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B17" s="66">
         <f>COUNTIFS(ET!M2:M153, "&lt;0,5")</f>
         <v>19</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C17" s="66">
         <f>COUNTIFS(ET!N2:N153, "&lt;0,5")</f>
         <v>23</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D17" s="66">
         <f>COUNTIFS(ET!O2:O153, "&lt;0,5")</f>
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>482</v>
+      </c>
+    </row>
     <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D22" t="s">
-        <v>482</v>
+      <c r="A22" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" s="67">
+        <f t="shared" ref="B22:D26" si="0">(B13/152)</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="D22" s="67">
+        <f t="shared" si="0"/>
+        <v>3.9473684210526314E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B23" s="65">
-        <f>(B14/152)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="C23" s="65">
-        <f>(C14/152)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="D23" s="65">
-        <f>(D14/152)</f>
-        <v>3.9473684210526314E-2</v>
+      <c r="A23" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="B23" s="67">
+        <f t="shared" si="0"/>
+        <v>0.27631578947368424</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="0"/>
+        <v>0.23026315789473684</v>
+      </c>
+      <c r="D23" s="67">
+        <f t="shared" si="0"/>
+        <v>0.29605263157894735</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>476</v>
-      </c>
-      <c r="B24" s="65">
-        <f>(B15/152)</f>
+      <c r="A24" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="B24" s="67">
+        <f t="shared" si="0"/>
+        <v>0.30263157894736842</v>
+      </c>
+      <c r="C24" s="67">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D24" s="67">
+        <f t="shared" si="0"/>
+        <v>0.26973684210526316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="67">
+        <f t="shared" si="0"/>
+        <v>0.28289473684210525</v>
+      </c>
+      <c r="C25" s="67">
+        <f t="shared" si="0"/>
         <v>0.27631578947368424</v>
       </c>
-      <c r="C24" s="65">
-        <f>(C15/152)</f>
-        <v>0.23026315789473684</v>
-      </c>
-      <c r="D24" s="65">
-        <f>(D15/152)</f>
-        <v>0.29605263157894735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>477</v>
-      </c>
-      <c r="B25" s="65">
-        <f>(B16/152)</f>
-        <v>0.30263157894736842</v>
-      </c>
-      <c r="C25" s="65">
-        <f>(C16/152)</f>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="D25" s="65">
-        <f>(D16/152)</f>
-        <v>0.26973684210526316</v>
+      <c r="D25" s="67">
+        <f t="shared" si="0"/>
+        <v>0.25657894736842107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" s="65">
-        <f>(B17/152)</f>
-        <v>0.28289473684210525</v>
-      </c>
-      <c r="C26" s="65">
-        <f>(C17/152)</f>
-        <v>0.27631578947368424</v>
-      </c>
-      <c r="D26" s="65">
-        <f>(D17/152)</f>
-        <v>0.25657894736842107</v>
+      <c r="A26" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="67">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C26" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15131578947368421</v>
+      </c>
+      <c r="D26" s="67">
+        <f t="shared" si="0"/>
+        <v>0.13815789473684212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>479</v>
-      </c>
-      <c r="B27" s="65">
-        <f>(B18/152)</f>
-        <v>0.125</v>
-      </c>
-      <c r="C27" s="65">
-        <f>(C18/152)</f>
-        <v>0.15131578947368421</v>
-      </c>
-      <c r="D27" s="65">
-        <f>(D18/152)</f>
-        <v>0.13815789473684212</v>
+      <c r="B27" s="58">
+        <f>SUM(B22:B24)</f>
+        <v>0.59210526315789469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="58">
+        <f>SUM(B25:B26)</f>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="58">
+        <f>SUM(B23,B22,B24,B25,B26)</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="58">
+        <f t="shared" ref="C29:D29" si="1">SUM(C23,C22,C24,C25,C26)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D29" s="58">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18368,7 +18399,7 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -18382,83 +18413,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="13.95" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="59">
+      <c r="E1" s="61">
         <v>2014</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61">
         <v>2015</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61">
         <v>2016</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61">
         <v>2017</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61">
         <v>2018</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59">
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61">
         <v>2019</v>
       </c>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59">
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61">
         <v>2020</v>
       </c>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61">
         <v>2021</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59">
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61">
         <v>2022</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59">
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61">
         <v>2023</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="58" t="s">
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="AJ1" s="58" t="s">
+      <c r="AJ1" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="AK1" s="58" t="s">
+      <c r="AK1" s="60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="15" thickBot="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
         <v>177</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -18551,9 +18582,9 @@
       <c r="AH2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
       <c r="AL2" t="s">
         <v>461</v>
       </c>
@@ -24608,23 +24639,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:AH41 E42:I42 K42:AH42 E43:AH52">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
@@ -24652,63 +24683,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.95" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="58">
+      <c r="E1" s="60">
         <v>2014</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58">
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60">
         <v>2016</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60">
         <v>2017</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60">
         <v>2018</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58">
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60">
         <v>2019</v>
       </c>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="X1" s="58" t="s">
+      <c r="X1" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="60" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="60"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="3" t="s">
         <v>182</v>
       </c>
@@ -24763,9 +24794,9 @@
       <c r="V2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
     </row>
     <row r="3" spans="1:25" ht="28.8">
       <c r="A3" s="45" t="s">
@@ -28613,11 +28644,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="K1:M1"/>
@@ -28625,6 +28651,11 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:V52">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
@@ -28653,57 +28684,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="63">
+      <c r="F1" s="64">
         <v>2020</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64">
         <v>2021</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63">
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64">
         <v>2022</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64">
         <v>2023</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="62" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="63" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="18" t="s">
         <v>182</v>
       </c>
@@ -28740,9 +28771,9 @@
       <c r="Q2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="12" t="s">
@@ -31842,11 +31873,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="F1:H1"/>
@@ -31854,6 +31880,11 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:Q52">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
@@ -31870,7 +31901,7 @@
   <dimension ref="B3:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
